--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H2">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I2">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J2">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.3183590123321</v>
+        <v>100.95625</v>
       </c>
       <c r="N2">
-        <v>42.3183590123321</v>
+        <v>302.86875</v>
       </c>
       <c r="O2">
-        <v>0.9104854977552237</v>
+        <v>0.9361599519103526</v>
       </c>
       <c r="P2">
-        <v>0.9104854977552237</v>
+        <v>0.9361599519103525</v>
       </c>
       <c r="Q2">
-        <v>70.99577930516395</v>
+        <v>182.5763494375</v>
       </c>
       <c r="R2">
-        <v>70.99577930516395</v>
+        <v>1643.1871449375</v>
       </c>
       <c r="S2">
-        <v>0.09172824584686419</v>
+        <v>0.09760055468785553</v>
       </c>
       <c r="T2">
-        <v>0.09172824584686419</v>
+        <v>0.09760055468785551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H3">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I3">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J3">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.15689427303088</v>
+        <v>0.3890956666666667</v>
       </c>
       <c r="N3">
-        <v>1.15689427303088</v>
+        <v>1.167287</v>
       </c>
       <c r="O3">
-        <v>0.02489074441009712</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="P3">
-        <v>0.02489074441009712</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="Q3">
-        <v>1.940874183320138</v>
+        <v>0.7036678402966667</v>
       </c>
       <c r="R3">
-        <v>1.940874183320138</v>
+        <v>6.33301056267</v>
       </c>
       <c r="S3">
-        <v>0.002507655891488636</v>
+        <v>0.0003761624752633701</v>
       </c>
       <c r="T3">
-        <v>0.002507655891488636</v>
+        <v>0.0003761624752633701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H4">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I4">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J4">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.00364079550577</v>
+        <v>2.996608333333334</v>
       </c>
       <c r="N4">
-        <v>3.00364079550577</v>
+        <v>8.989825000000002</v>
       </c>
       <c r="O4">
-        <v>0.06462375783467927</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="P4">
-        <v>0.06462375783467927</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="Q4">
-        <v>5.039085257714559</v>
+        <v>5.419276272583335</v>
       </c>
       <c r="R4">
-        <v>5.039085257714559</v>
+        <v>48.77348645325001</v>
       </c>
       <c r="S4">
-        <v>0.006510618742223307</v>
+        <v>0.002897003756732086</v>
       </c>
       <c r="T4">
-        <v>0.006510618742223307</v>
+        <v>0.002897003756732086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.01256620064626</v>
+        <v>1.80847</v>
       </c>
       <c r="H5">
-        <v>6.01256620064626</v>
+        <v>5.42541</v>
       </c>
       <c r="I5">
-        <v>0.3610656840865841</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J5">
-        <v>0.3610656840865841</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.3183590123321</v>
+        <v>3.498858666666667</v>
       </c>
       <c r="N5">
-        <v>42.3183590123321</v>
+        <v>10.496576</v>
       </c>
       <c r="O5">
-        <v>0.9104854977552237</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="P5">
-        <v>0.9104854977552237</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="Q5">
-        <v>254.441935064362</v>
+        <v>6.327580932906668</v>
       </c>
       <c r="R5">
-        <v>254.441935064362</v>
+        <v>56.94822839616001</v>
       </c>
       <c r="S5">
-        <v>0.3287450690979039</v>
+        <v>0.003382559738907471</v>
       </c>
       <c r="T5">
-        <v>0.3287450690979039</v>
+        <v>0.003382559738907471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.01256620064626</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H6">
-        <v>6.01256620064626</v>
+        <v>18.767257</v>
       </c>
       <c r="I6">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J6">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.15689427303088</v>
+        <v>100.95625</v>
       </c>
       <c r="N6">
-        <v>1.15689427303088</v>
+        <v>302.86875</v>
       </c>
       <c r="O6">
-        <v>0.02489074441009712</v>
+        <v>0.9361599519103526</v>
       </c>
       <c r="P6">
-        <v>0.02489074441009712</v>
+        <v>0.9361599519103525</v>
       </c>
       <c r="Q6">
-        <v>6.955903403746695</v>
+        <v>631.5572965020833</v>
       </c>
       <c r="R6">
-        <v>6.955903403746695</v>
+        <v>5684.015668518749</v>
       </c>
       <c r="S6">
-        <v>0.008987193657856036</v>
+        <v>0.3376140592452072</v>
       </c>
       <c r="T6">
-        <v>0.008987193657856036</v>
+        <v>0.3376140592452072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.01256620064626</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H7">
-        <v>6.01256620064626</v>
+        <v>18.767257</v>
       </c>
       <c r="I7">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J7">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.00364079550577</v>
+        <v>0.3890956666666667</v>
       </c>
       <c r="N7">
-        <v>3.00364079550577</v>
+        <v>1.167287</v>
       </c>
       <c r="O7">
-        <v>0.06462375783467927</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="P7">
-        <v>0.06462375783467927</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="Q7">
-        <v>18.05958912594024</v>
+        <v>2.434086124639889</v>
       </c>
       <c r="R7">
-        <v>18.05958912594024</v>
+        <v>21.906775121759</v>
       </c>
       <c r="S7">
-        <v>0.02333342133082422</v>
+        <v>0.001301198959530028</v>
       </c>
       <c r="T7">
-        <v>0.02333342133082422</v>
+        <v>0.001301198959530028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.43080596984191</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H8">
-        <v>3.43080596984191</v>
+        <v>18.767257</v>
       </c>
       <c r="I8">
-        <v>0.2060262229355844</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J8">
-        <v>0.2060262229355844</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.3183590123321</v>
+        <v>2.996608333333334</v>
       </c>
       <c r="N8">
-        <v>42.3183590123321</v>
+        <v>8.989825000000002</v>
       </c>
       <c r="O8">
-        <v>0.9104854977552237</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="P8">
-        <v>0.9104854977552237</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="Q8">
-        <v>145.1860787334222</v>
+        <v>18.74603957333612</v>
       </c>
       <c r="R8">
-        <v>145.1860787334222</v>
+        <v>168.714356160025</v>
       </c>
       <c r="S8">
-        <v>0.1875838881401342</v>
+        <v>0.01002114384582115</v>
       </c>
       <c r="T8">
-        <v>0.1875838881401342</v>
+        <v>0.01002114384582115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.43080596984191</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H9">
-        <v>3.43080596984191</v>
+        <v>18.767257</v>
       </c>
       <c r="I9">
-        <v>0.2060262229355844</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J9">
-        <v>0.2060262229355844</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15689427303088</v>
+        <v>3.498858666666667</v>
       </c>
       <c r="N9">
-        <v>1.15689427303088</v>
+        <v>10.496576</v>
       </c>
       <c r="O9">
-        <v>0.02489074441009712</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="P9">
-        <v>0.02489074441009712</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="Q9">
-        <v>3.96907977839026</v>
+        <v>21.88799326800356</v>
       </c>
       <c r="R9">
-        <v>3.96907977839026</v>
+        <v>196.991939412032</v>
       </c>
       <c r="S9">
-        <v>0.00512814605686732</v>
+        <v>0.01170075034659674</v>
       </c>
       <c r="T9">
-        <v>0.00512814605686732</v>
+        <v>0.01170075034659674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.43080596984191</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H10">
-        <v>3.43080596984191</v>
+        <v>11.247056</v>
       </c>
       <c r="I10">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J10">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.00364079550577</v>
+        <v>100.95625</v>
       </c>
       <c r="N10">
-        <v>3.00364079550577</v>
+        <v>302.86875</v>
       </c>
       <c r="O10">
-        <v>0.06462375783467927</v>
+        <v>0.9361599519103526</v>
       </c>
       <c r="P10">
-        <v>0.06462375783467927</v>
+        <v>0.9361599519103525</v>
       </c>
       <c r="Q10">
-        <v>10.3049087724819</v>
+        <v>378.4868657666667</v>
       </c>
       <c r="R10">
-        <v>10.3049087724819</v>
+        <v>3406.3817919</v>
       </c>
       <c r="S10">
-        <v>0.01331418873858285</v>
+        <v>0.2023292072314118</v>
       </c>
       <c r="T10">
-        <v>0.01331418873858285</v>
+        <v>0.2023292072314117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.53124689487687</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H11">
-        <v>5.53124689487687</v>
+        <v>11.247056</v>
       </c>
       <c r="I11">
-        <v>0.3321615724972555</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J11">
-        <v>0.3321615724972555</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>42.3183590123321</v>
+        <v>0.3890956666666667</v>
       </c>
       <c r="N11">
-        <v>42.3183590123321</v>
+        <v>1.167287</v>
       </c>
       <c r="O11">
-        <v>0.9104854977552237</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="P11">
-        <v>0.9104854977552237</v>
+        <v>0.003608055772626195</v>
       </c>
       <c r="Q11">
-        <v>234.0732918832466</v>
+        <v>1.458726917452444</v>
       </c>
       <c r="R11">
-        <v>234.0732918832466</v>
+        <v>13.128542257072</v>
       </c>
       <c r="S11">
-        <v>0.3024282946703215</v>
+        <v>0.0007797973654315044</v>
       </c>
       <c r="T11">
-        <v>0.3024282946703215</v>
+        <v>0.0007797973654315043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.53124689487687</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H12">
-        <v>5.53124689487687</v>
+        <v>11.247056</v>
       </c>
       <c r="I12">
-        <v>0.3321615724972555</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J12">
-        <v>0.3321615724972555</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.15689427303088</v>
+        <v>2.996608333333334</v>
       </c>
       <c r="N12">
-        <v>1.15689427303088</v>
+        <v>8.989825000000002</v>
       </c>
       <c r="O12">
-        <v>0.02489074441009712</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="P12">
-        <v>0.02489074441009712</v>
+        <v>0.02778733078167519</v>
       </c>
       <c r="Q12">
-        <v>6.399067855402889</v>
+        <v>11.23434057835556</v>
       </c>
       <c r="R12">
-        <v>6.399067855402889</v>
+        <v>101.1090652052</v>
       </c>
       <c r="S12">
-        <v>0.008267748803885134</v>
+        <v>0.006005585473572717</v>
       </c>
       <c r="T12">
-        <v>0.008267748803885134</v>
+        <v>0.006005585473572716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.53124689487687</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H13">
-        <v>5.53124689487687</v>
+        <v>11.247056</v>
       </c>
       <c r="I13">
-        <v>0.3321615724972555</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J13">
-        <v>0.3321615724972555</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.00364079550577</v>
+        <v>3.498858666666667</v>
       </c>
       <c r="N13">
-        <v>3.00364079550577</v>
+        <v>10.496576</v>
       </c>
       <c r="O13">
-        <v>0.06462375783467927</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="P13">
-        <v>0.06462375783467927</v>
+        <v>0.03244466153534613</v>
       </c>
       <c r="Q13">
-        <v>16.61387882346678</v>
+        <v>13.11728645336178</v>
       </c>
       <c r="R13">
-        <v>16.61387882346678</v>
+        <v>118.055578080256</v>
       </c>
       <c r="S13">
-        <v>0.0214655290230489</v>
+        <v>0.007012159229779446</v>
       </c>
       <c r="T13">
-        <v>0.0214655290230489</v>
+        <v>0.007012159229779445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.533148</v>
+      </c>
+      <c r="H14">
+        <v>16.599444</v>
+      </c>
+      <c r="I14">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="J14">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>100.95625</v>
+      </c>
+      <c r="N14">
+        <v>302.86875</v>
+      </c>
+      <c r="O14">
+        <v>0.9361599519103526</v>
+      </c>
+      <c r="P14">
+        <v>0.9361599519103525</v>
+      </c>
+      <c r="Q14">
+        <v>558.605872775</v>
+      </c>
+      <c r="R14">
+        <v>5027.452854974999</v>
+      </c>
+      <c r="S14">
+        <v>0.2986161307458782</v>
+      </c>
+      <c r="T14">
+        <v>0.2986161307458782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.533148</v>
+      </c>
+      <c r="H15">
+        <v>16.599444</v>
+      </c>
+      <c r="I15">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="J15">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3890956666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.167287</v>
+      </c>
+      <c r="O15">
+        <v>0.003608055772626195</v>
+      </c>
+      <c r="P15">
+        <v>0.003608055772626195</v>
+      </c>
+      <c r="Q15">
+        <v>2.152923909825333</v>
+      </c>
+      <c r="R15">
+        <v>19.376315188428</v>
+      </c>
+      <c r="S15">
+        <v>0.001150896972401293</v>
+      </c>
+      <c r="T15">
+        <v>0.001150896972401292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.533148</v>
+      </c>
+      <c r="H16">
+        <v>16.599444</v>
+      </c>
+      <c r="I16">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="J16">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.996608333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.989825000000002</v>
+      </c>
+      <c r="O16">
+        <v>0.02778733078167519</v>
+      </c>
+      <c r="P16">
+        <v>0.02778733078167519</v>
+      </c>
+      <c r="Q16">
+        <v>16.58067740636667</v>
+      </c>
+      <c r="R16">
+        <v>149.2260966573</v>
+      </c>
+      <c r="S16">
+        <v>0.008863597705549236</v>
+      </c>
+      <c r="T16">
+        <v>0.008863597705549236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.533148</v>
+      </c>
+      <c r="H17">
+        <v>16.599444</v>
+      </c>
+      <c r="I17">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="J17">
+        <v>0.3189798176438912</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.498858666666667</v>
+      </c>
+      <c r="N17">
+        <v>10.496576</v>
+      </c>
+      <c r="O17">
+        <v>0.03244466153534613</v>
+      </c>
+      <c r="P17">
+        <v>0.03244466153534613</v>
+      </c>
+      <c r="Q17">
+        <v>19.35970283374933</v>
+      </c>
+      <c r="R17">
+        <v>174.237325503744</v>
+      </c>
+      <c r="S17">
+        <v>0.01034919222006248</v>
+      </c>
+      <c r="T17">
+        <v>0.01034919222006248</v>
       </c>
     </row>
   </sheetData>
